--- a/generated_docs/WR_89804587_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89804587_WeekEnding_080325.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>Jacob Henderson</t>
+          <t>JH</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>837-1</t>
+          <t>#NO MATCH-1</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89804587_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89804587_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I19"/>
+  <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3096.6</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -761,11 +761,11 @@
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -781,7 +781,7 @@
       </c>
       <c r="C17" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D17" s="12" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -810,17 +810,17 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>PLA-BACK</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -829,21 +829,55 @@
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>2143.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="inlineStr">
+      <c r="A19" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B19" s="12" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D19" s="12" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E19" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G19" s="13" t="inlineStr"/>
+      <c r="H19" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H19" s="16" t="n">
-        <v>3096.6</v>
+      <c r="H20" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -855,10 +889,10 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A20:G20"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A19:G19"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89804587_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89804587_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I20"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>3096.6</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P7</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -742,7 +738,7 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
@@ -752,7 +748,7 @@
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -761,11 +757,11 @@
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="17">
@@ -781,7 +777,7 @@
       </c>
       <c r="C17" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D17" s="12" t="inlineStr">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="18">
@@ -810,17 +806,17 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>PLA-BACK</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -829,55 +825,21 @@
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>2143.8</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B19" s="12" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C19" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D19" s="12" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E19" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F19" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="G19" s="13" t="inlineStr"/>
-      <c r="H19" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="15" t="inlineStr">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H20" s="16" t="n">
-        <v>0</v>
+      <c r="H19" s="16" t="n">
+        <v>3096.6</v>
       </c>
     </row>
   </sheetData>
@@ -889,10 +851,10 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A20:G20"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A19:G19"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
